--- a/biology/Zoologie/Hexanchiformes/Hexanchiformes.xlsx
+++ b/biology/Zoologie/Hexanchiformes/Hexanchiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexanchiformes (de Buen, 1926) (du grec exa = six, agkone ou agko = étranglé et du latin forma = forme) est un ordre contenant les espèces les plus primitives des requins, et compte seulement six espèces vivantes.
 Les requins hexanchiformes n'ont qu'une seule nageoire dorsale, six ou sept ouïes et sont dépourvus de paupières internes.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces vivantes
-Selon ITIS      (5 août 2015)[1] :
+          <t>Espèces vivantes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (5 août 2015) :
 famille Chlamydoselachidae Garman, 1884
 genre Chlamydoselachus Garman, 1884
 Chlamydoselachus anguineus (Garman, 1884) (Requin-Lézard)
@@ -530,12 +547,48 @@
 famille Notorynchidae Compagno, 1999
 genre Notorynchus Ayres, 1855
 Notorynchus cepedianus (Péron, 1807) (Requin plat-nez)
-FishBase                                            (5 août 2015)[2] et World Register of Marine Species                               (5 août 2015)[3] le reconnaissent pas la famille des Notorynchidae, et rangent encore le genre Notorynchus au sein des Hexanchidae. 
+FishBase                                            (5 août 2015) et World Register of Marine Species                               (5 août 2015) le reconnaissent pas la famille des Notorynchidae, et rangent encore le genre Notorynchus au sein des Hexanchidae. 
 			Chlamydoselachus anguineus
 			Heptranchias perlo
 			Hexanchus griseus
 			Notorynchus cepedianus
-Espèces disparues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hexanchiformes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexanchiformes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces disparues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 famille Chlamydoselachidae
 genre Chlamydoselachus
 Chlamydoselachus bracheri Pfeil, 1983
